--- a/Guatemala/CENSO 2018/Cuadro A6 - Población maya por comunidad lingüística.xlsx
+++ b/Guatemala/CENSO 2018/Cuadro A6 - Población maya por comunidad lingüística.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Comunicaciones REDD Dropbox\Patricio Emanuelli\0000 DOCUMENTACIÓN REDD+ Guatemala\MRV_REDD_Guatemala\BD_GT\CENSO 2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-MUNI\Guatemala\CENSO 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEC689F-1EF3-419D-B987-DFD5D552D30E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81774968-58B4-41A4-9177-C5D9C667A182}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A6_1" sheetId="2" r:id="rId1"/>
@@ -20,17 +20,26 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">A6_1!$1:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">A6_2!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3326" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3370" uniqueCount="399">
   <si>
     <t>Fuente: INE, XII Censo Nacional de Población y VII de Vivienda - 2018</t>
   </si>
@@ -1157,73 +1166,76 @@
     <t>Total nacional</t>
   </si>
   <si>
-    <t>Comunidad lingüística Maya: Achi</t>
-  </si>
-  <si>
     <t>Código2</t>
   </si>
   <si>
-    <t>Comunidad lingüística Maya: Achi3</t>
-  </si>
-  <si>
-    <t>Comunidad lingüística Maya: Achi4</t>
-  </si>
-  <si>
-    <t>Comunidad lingüística Maya: Achi5</t>
-  </si>
-  <si>
-    <t>Comunidad lingüística Maya: Achi6</t>
-  </si>
-  <si>
-    <t>Comunidad lingüística Maya: Achi7</t>
-  </si>
-  <si>
-    <t>Comunidad lingüística Maya: Achi8</t>
-  </si>
-  <si>
-    <t>Comunidad lingüística Maya: Achi9</t>
-  </si>
-  <si>
-    <t>Comunidad lingüística Maya: Achi10</t>
-  </si>
-  <si>
-    <t>Comunidad lingüística Maya: Achi11</t>
-  </si>
-  <si>
-    <t>Comunidad lingüística Maya: Achi12</t>
-  </si>
-  <si>
-    <t>Comunidad lingüística Maya: Achi13</t>
-  </si>
-  <si>
-    <t>Comunidad lingüística Maya: Achi14</t>
-  </si>
-  <si>
-    <t>Comunidad lingüística Maya: Achi15</t>
-  </si>
-  <si>
-    <t>Comunidad lingüística Maya: Achi16</t>
-  </si>
-  <si>
-    <t>Comunidad lingüística Maya: Achi17</t>
-  </si>
-  <si>
-    <t>Comunidad lingüística Maya: Achi18</t>
-  </si>
-  <si>
-    <t>Comunidad lingüística Maya: Achi19</t>
-  </si>
-  <si>
-    <t>Comunidad lingüística Maya: Achi20</t>
-  </si>
-  <si>
-    <t>Comunidad lingüística Maya: Achi21</t>
-  </si>
-  <si>
-    <t>Comunidad lingüística Maya: Achi22</t>
-  </si>
-  <si>
-    <t>Comunidad lingüística Maya: Achi23</t>
+    <t xml:space="preserve">CLM: </t>
+  </si>
+  <si>
+    <t>CLM: Achi</t>
+  </si>
+  <si>
+    <t>CLM: Akateka</t>
+  </si>
+  <si>
+    <t>CLM: Awakateka</t>
+  </si>
+  <si>
+    <t>CLM: Ch'orti'</t>
+  </si>
+  <si>
+    <t>CLM: Chalchiteka</t>
+  </si>
+  <si>
+    <t>CLM: Chuj</t>
+  </si>
+  <si>
+    <t>CLM: Itza'</t>
+  </si>
+  <si>
+    <t>CLM: Ixil</t>
+  </si>
+  <si>
+    <t>CLM: Jakalteko /Popti'</t>
+  </si>
+  <si>
+    <t>CLM: K'iche'</t>
+  </si>
+  <si>
+    <t>CLM: Kaqchikel</t>
+  </si>
+  <si>
+    <t>CLM: Mam</t>
+  </si>
+  <si>
+    <t>CLM: Mopan</t>
+  </si>
+  <si>
+    <t>CLM: Poqomam</t>
+  </si>
+  <si>
+    <t>CLM: Poqomchi'</t>
+  </si>
+  <si>
+    <t>CLM: Q'anjob'al</t>
+  </si>
+  <si>
+    <t>CLM: Q'eqchi'</t>
+  </si>
+  <si>
+    <t>CLM: Sakapulteka</t>
+  </si>
+  <si>
+    <t>CLM: Sipakapense</t>
+  </si>
+  <si>
+    <t>CLM: Tektiteka</t>
+  </si>
+  <si>
+    <t>CLM: Tz'utujil</t>
+  </si>
+  <si>
+    <t>CLM: Uspanteka</t>
   </si>
 </sst>
 </file>
@@ -1339,7 +1351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1423,6 +1435,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1431,67 +1449,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="27">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2369,6 +2333,55 @@
         <horizontal/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2383,36 +2396,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1683F935-0765-434F-99A3-B5BBCD623B2E}" name="Pobl_Maya_Linguistica" displayName="Pobl_Maya_Linguistica" ref="A4:AA345" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1683F935-0765-434F-99A3-B5BBCD623B2E}" name="Pobl_Maya_Linguistica" displayName="Pobl_Maya_Linguistica" ref="A4:AA345" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A4:AA345" xr:uid="{73FC0C1A-09A5-4C8A-BB8B-608881E112BA}"/>
   <tableColumns count="27">
-    <tableColumn id="1" xr3:uid="{7E1A8560-2B32-4C60-884B-6F9AF3B10E5C}" name="Código" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{E57691AC-AA0F-4F64-B36C-2DFCF9AC8E5B}" name="Departamento" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{FA376D31-25D0-4E0C-9121-CBFD3D7EA0AF}" name="Código2" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{E4588433-44A7-45CF-AA24-066500E81BF1}" name="Municipio" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{F6BAF23D-A9B9-4A9A-8517-4B8D2E969EF4}" name="Total de población pueblo maya" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{ABF76758-EE45-4EB0-9045-7A41931D1326}" name="Comunidad lingüística Maya: Achi" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{A86D0DFC-D311-494C-8BDC-B7D2FCDC4C32}" name="Comunidad lingüística Maya: Achi3" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{6D2FBC42-000A-4AA6-827D-A69C5CAD8028}" name="Comunidad lingüística Maya: Achi4"/>
-    <tableColumn id="9" xr3:uid="{F2A6E68D-91F5-41F8-9186-DF0EE0D62419}" name="Comunidad lingüística Maya: Achi5" dataDxfId="19"/>
-    <tableColumn id="10" xr3:uid="{C8049A22-73AC-448D-B6CD-21D59EB2536F}" name="Comunidad lingüística Maya: Achi6" dataDxfId="18"/>
-    <tableColumn id="11" xr3:uid="{22C48B63-BC2A-4804-ACD7-7CEA5A881022}" name="Comunidad lingüística Maya: Achi7" dataDxfId="17"/>
-    <tableColumn id="12" xr3:uid="{75663ED5-F581-455B-A4AE-203BAFB43E37}" name="Comunidad lingüística Maya: Achi8" dataDxfId="16"/>
-    <tableColumn id="13" xr3:uid="{1A3D06EE-F490-41EE-8C1C-1738AAD9F1F0}" name="Comunidad lingüística Maya: Achi9" dataDxfId="15"/>
-    <tableColumn id="14" xr3:uid="{B07558FC-82F9-481A-9E61-1ED3DA8B5980}" name="Comunidad lingüística Maya: Achi10" dataDxfId="14"/>
-    <tableColumn id="15" xr3:uid="{5C4E8BB2-103C-4617-9DD3-83CCD1A31BB8}" name="Comunidad lingüística Maya: Achi11" dataDxfId="13"/>
-    <tableColumn id="16" xr3:uid="{2960EEFC-D69B-4E5E-B8FD-7C7FE6BAFA12}" name="Comunidad lingüística Maya: Achi12" dataDxfId="12"/>
-    <tableColumn id="17" xr3:uid="{0B8A8921-BEAC-4180-977A-90E68FF2C393}" name="Comunidad lingüística Maya: Achi13" dataDxfId="11"/>
-    <tableColumn id="18" xr3:uid="{B8A6F12D-7F74-41DD-9D80-2E8C02CFE2A1}" name="Comunidad lingüística Maya: Achi14" dataDxfId="10"/>
-    <tableColumn id="19" xr3:uid="{1F3FADCD-FBDD-42EE-9269-36593A123AB2}" name="Comunidad lingüística Maya: Achi15"/>
-    <tableColumn id="20" xr3:uid="{C8121A38-7F09-4256-A327-68B36DFF5E79}" name="Comunidad lingüística Maya: Achi16" dataDxfId="9"/>
-    <tableColumn id="21" xr3:uid="{92D5ED11-B205-401F-8996-3E40DD360FC9}" name="Comunidad lingüística Maya: Achi17" dataDxfId="8"/>
-    <tableColumn id="22" xr3:uid="{32988F0D-4CAB-4F1C-A6A6-30079FC0F2FA}" name="Comunidad lingüística Maya: Achi18" dataDxfId="7"/>
-    <tableColumn id="23" xr3:uid="{C5B80BF0-FEC9-4D8C-81BC-73B9961C9D15}" name="Comunidad lingüística Maya: Achi19" dataDxfId="6"/>
-    <tableColumn id="24" xr3:uid="{FF3C319B-13A9-4778-AA6F-F718D1136E80}" name="Comunidad lingüística Maya: Achi20" dataDxfId="5"/>
-    <tableColumn id="25" xr3:uid="{DED2C0C8-6699-4D6F-9DAC-7F9D3B2587D8}" name="Comunidad lingüística Maya: Achi21" dataDxfId="4"/>
-    <tableColumn id="26" xr3:uid="{464C3B5E-459D-4253-9D73-CA09D1922AEC}" name="Comunidad lingüística Maya: Achi22" dataDxfId="3"/>
-    <tableColumn id="27" xr3:uid="{29B1BCDA-A702-47EC-A9CC-3E24E293ECA4}" name="Comunidad lingüística Maya: Achi23" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{7E1A8560-2B32-4C60-884B-6F9AF3B10E5C}" name="Código" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{E57691AC-AA0F-4F64-B36C-2DFCF9AC8E5B}" name="Departamento" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{FA376D31-25D0-4E0C-9121-CBFD3D7EA0AF}" name="Código2" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{E4588433-44A7-45CF-AA24-066500E81BF1}" name="Municipio" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{F6BAF23D-A9B9-4A9A-8517-4B8D2E969EF4}" name="Total de población pueblo maya" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{ABF76758-EE45-4EB0-9045-7A41931D1326}" name="CLM: Achi" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{A86D0DFC-D311-494C-8BDC-B7D2FCDC4C32}" name="CLM: Akateka" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{6D2FBC42-000A-4AA6-827D-A69C5CAD8028}" name="CLM: Awakateka"/>
+    <tableColumn id="9" xr3:uid="{F2A6E68D-91F5-41F8-9186-DF0EE0D62419}" name="CLM: Ch'orti'" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{C8049A22-73AC-448D-B6CD-21D59EB2536F}" name="CLM: Chalchiteka" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{22C48B63-BC2A-4804-ACD7-7CEA5A881022}" name="CLM: Chuj" dataDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{75663ED5-F581-455B-A4AE-203BAFB43E37}" name="CLM: Itza'" dataDxfId="14"/>
+    <tableColumn id="13" xr3:uid="{1A3D06EE-F490-41EE-8C1C-1738AAD9F1F0}" name="CLM: Ixil" dataDxfId="13"/>
+    <tableColumn id="14" xr3:uid="{B07558FC-82F9-481A-9E61-1ED3DA8B5980}" name="CLM: Jakalteko /Popti'" dataDxfId="12"/>
+    <tableColumn id="15" xr3:uid="{5C4E8BB2-103C-4617-9DD3-83CCD1A31BB8}" name="CLM: K'iche'" dataDxfId="11"/>
+    <tableColumn id="16" xr3:uid="{2960EEFC-D69B-4E5E-B8FD-7C7FE6BAFA12}" name="CLM: Kaqchikel" dataDxfId="10"/>
+    <tableColumn id="17" xr3:uid="{0B8A8921-BEAC-4180-977A-90E68FF2C393}" name="CLM: Mam" dataDxfId="9"/>
+    <tableColumn id="18" xr3:uid="{B8A6F12D-7F74-41DD-9D80-2E8C02CFE2A1}" name="CLM: Mopan" dataDxfId="8"/>
+    <tableColumn id="19" xr3:uid="{1F3FADCD-FBDD-42EE-9269-36593A123AB2}" name="CLM: Poqomam"/>
+    <tableColumn id="20" xr3:uid="{C8121A38-7F09-4256-A327-68B36DFF5E79}" name="CLM: Poqomchi'" dataDxfId="7"/>
+    <tableColumn id="21" xr3:uid="{92D5ED11-B205-401F-8996-3E40DD360FC9}" name="CLM: Q'anjob'al" dataDxfId="6"/>
+    <tableColumn id="22" xr3:uid="{32988F0D-4CAB-4F1C-A6A6-30079FC0F2FA}" name="CLM: Q'eqchi'" dataDxfId="5"/>
+    <tableColumn id="23" xr3:uid="{C5B80BF0-FEC9-4D8C-81BC-73B9961C9D15}" name="CLM: Sakapulteka" dataDxfId="4"/>
+    <tableColumn id="24" xr3:uid="{FF3C319B-13A9-4778-AA6F-F718D1136E80}" name="CLM: Sipakapense" dataDxfId="3"/>
+    <tableColumn id="25" xr3:uid="{DED2C0C8-6699-4D6F-9DAC-7F9D3B2587D8}" name="CLM: Tektiteka" dataDxfId="2"/>
+    <tableColumn id="26" xr3:uid="{464C3B5E-459D-4253-9D73-CA09D1922AEC}" name="CLM: Tz'utujil" dataDxfId="1"/>
+    <tableColumn id="27" xr3:uid="{29B1BCDA-A702-47EC-A9CC-3E24E293ECA4}" name="CLM: Uspanteka" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2687,83 +2700,83 @@
   <dimension ref="A1:AB33"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D6" sqref="D6:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="11.42578125" style="1"/>
+    <col min="26" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="20" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>372</v>
       </c>
       <c r="B1" s="25"/>
       <c r="O1" s="23"/>
     </row>
-    <row r="2" spans="1:25" s="20" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+    <row r="5" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="40" t="s">
         <v>369</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="40" t="s">
         <v>370</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="41" t="s">
         <v>367</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="42" t="s">
         <v>366</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="40"/>
-    </row>
-    <row r="6" spans="1:25" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="39"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+      <c r="W5" s="42"/>
+      <c r="X5" s="42"/>
+      <c r="Y5" s="42"/>
+    </row>
+    <row r="6" spans="1:25" ht="59.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="18" t="s">
         <v>365</v>
       </c>
@@ -2831,7 +2844,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="4"/>
       <c r="C7" s="27"/>
@@ -2854,7 +2867,7 @@
       <c r="T7" s="27"/>
       <c r="U7" s="27"/>
     </row>
-    <row r="8" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28"/>
       <c r="B8" s="28" t="s">
         <v>374</v>
@@ -2929,8 +2942,8 @@
         <v>4909</v>
       </c>
     </row>
-    <row r="9" spans="1:25" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29">
         <v>1</v>
       </c>
@@ -3007,7 +3020,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="11" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="29">
         <v>2</v>
       </c>
@@ -3084,7 +3097,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="29">
         <v>3</v>
       </c>
@@ -3161,7 +3174,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29">
         <v>4</v>
       </c>
@@ -3238,7 +3251,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="29">
         <v>5</v>
       </c>
@@ -3315,7 +3328,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="29">
         <v>6</v>
       </c>
@@ -3392,7 +3405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29">
         <v>7</v>
       </c>
@@ -3469,7 +3482,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="29">
         <v>8</v>
       </c>
@@ -3546,7 +3559,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="29">
         <v>9</v>
       </c>
@@ -3623,7 +3636,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29">
         <v>10</v>
       </c>
@@ -3700,7 +3713,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="29">
         <v>11</v>
       </c>
@@ -3777,7 +3790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="29">
         <v>12</v>
       </c>
@@ -3854,7 +3867,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="29">
         <v>13</v>
       </c>
@@ -3931,7 +3944,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="23" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="29">
         <v>14</v>
       </c>
@@ -4008,7 +4021,7 @@
         <v>3691</v>
       </c>
     </row>
-    <row r="24" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="29">
         <v>15</v>
       </c>
@@ -4085,7 +4098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="29">
         <v>16</v>
       </c>
@@ -4162,7 +4175,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="29">
         <v>17</v>
       </c>
@@ -4239,7 +4252,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="29">
         <v>18</v>
       </c>
@@ -4316,7 +4329,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="29">
         <v>19</v>
       </c>
@@ -4393,7 +4406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="29">
         <v>20</v>
       </c>
@@ -4470,7 +4483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="29">
         <v>21</v>
       </c>
@@ -4547,7 +4560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="33">
         <v>22</v>
       </c>
@@ -4624,7 +4637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="B32" s="10"/>
       <c r="C32" s="35"/>
@@ -4654,7 +4667,7 @@
       <c r="AA32" s="37"/>
       <c r="AB32" s="37"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>0</v>
       </c>
@@ -4684,122 +4697,343 @@
   </sheetPr>
   <dimension ref="A1:AA345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:AA345"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:AA4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.88671875" style="1" customWidth="1"/>
     <col min="7" max="13" width="34" style="1" customWidth="1"/>
     <col min="14" max="27" width="35" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="11.42578125" style="1"/>
+    <col min="28" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="20" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>372</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="24"/>
       <c r="D1" s="22"/>
-      <c r="Q1" s="23"/>
-    </row>
-    <row r="2" spans="1:27" s="20" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F1" s="43" t="str">
+        <f>+F2&amp;F3</f>
+        <v>CLM: Achi</v>
+      </c>
+      <c r="G1" s="43" t="str">
+        <f t="shared" ref="G1:AA1" si="0">+G2&amp;G3</f>
+        <v>CLM: Akateka</v>
+      </c>
+      <c r="H1" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>CLM: Awakateka</v>
+      </c>
+      <c r="I1" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>CLM: Ch'orti'</v>
+      </c>
+      <c r="J1" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>CLM: Chalchiteka</v>
+      </c>
+      <c r="K1" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>CLM: Chuj</v>
+      </c>
+      <c r="L1" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>CLM: Itza'</v>
+      </c>
+      <c r="M1" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>CLM: Ixil</v>
+      </c>
+      <c r="N1" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>CLM: Jakalteko /Popti'</v>
+      </c>
+      <c r="O1" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>CLM: K'iche'</v>
+      </c>
+      <c r="P1" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>CLM: Kaqchikel</v>
+      </c>
+      <c r="Q1" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>CLM: Mam</v>
+      </c>
+      <c r="R1" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>CLM: Mopan</v>
+      </c>
+      <c r="S1" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>CLM: Poqomam</v>
+      </c>
+      <c r="T1" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>CLM: Poqomchi'</v>
+      </c>
+      <c r="U1" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>CLM: Q'anjob'al</v>
+      </c>
+      <c r="V1" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>CLM: Q'eqchi'</v>
+      </c>
+      <c r="W1" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>CLM: Sakapulteka</v>
+      </c>
+      <c r="X1" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>CLM: Sipakapense</v>
+      </c>
+      <c r="Y1" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>CLM: Tektiteka</v>
+      </c>
+      <c r="Z1" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>CLM: Tz'utujil</v>
+      </c>
+      <c r="AA1" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>CLM: Uspanteka</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
         <v>371</v>
       </c>
       <c r="C2" s="21"/>
-    </row>
-    <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="F2" s="43" t="s">
+        <v>376</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>376</v>
+      </c>
+      <c r="H2" s="43" t="s">
+        <v>376</v>
+      </c>
+      <c r="I2" s="43" t="s">
+        <v>376</v>
+      </c>
+      <c r="J2" s="43" t="s">
+        <v>376</v>
+      </c>
+      <c r="K2" s="43" t="s">
+        <v>376</v>
+      </c>
+      <c r="L2" s="43" t="s">
+        <v>376</v>
+      </c>
+      <c r="M2" s="43" t="s">
+        <v>376</v>
+      </c>
+      <c r="N2" s="43" t="s">
+        <v>376</v>
+      </c>
+      <c r="O2" s="43" t="s">
+        <v>376</v>
+      </c>
+      <c r="P2" s="43" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q2" s="43" t="s">
+        <v>376</v>
+      </c>
+      <c r="R2" s="43" t="s">
+        <v>376</v>
+      </c>
+      <c r="S2" s="43" t="s">
+        <v>376</v>
+      </c>
+      <c r="T2" s="43" t="s">
+        <v>376</v>
+      </c>
+      <c r="U2" s="43" t="s">
+        <v>376</v>
+      </c>
+      <c r="V2" s="43" t="s">
+        <v>376</v>
+      </c>
+      <c r="W2" s="43" t="s">
+        <v>376</v>
+      </c>
+      <c r="X2" s="43" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y2" s="43" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z2" s="43" t="s">
+        <v>376</v>
+      </c>
+      <c r="AA2" s="43" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="F3" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="38" t="s">
         <v>369</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="38" t="s">
         <v>370</v>
       </c>
-      <c r="C4" s="41" t="s">
-        <v>376</v>
-      </c>
-      <c r="D4" s="42" t="s">
+      <c r="C4" s="38" t="s">
+        <v>375</v>
+      </c>
+      <c r="D4" s="39" t="s">
         <v>368</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="39" t="s">
         <v>367</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>1</v>
       </c>
@@ -4882,7 +5116,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>1</v>
       </c>
@@ -4965,7 +5199,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>1</v>
       </c>
@@ -5048,7 +5282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>1</v>
       </c>
@@ -5131,7 +5365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>1</v>
       </c>
@@ -5214,7 +5448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>1</v>
       </c>
@@ -5297,7 +5531,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>1</v>
       </c>
@@ -5380,7 +5614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>1</v>
       </c>
@@ -5463,7 +5697,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>1</v>
       </c>
@@ -5546,7 +5780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>1</v>
       </c>
@@ -5629,7 +5863,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>1</v>
       </c>
@@ -5712,7 +5946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <v>1</v>
       </c>
@@ -5795,7 +6029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <v>1</v>
       </c>
@@ -5878,7 +6112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
         <v>1</v>
       </c>
@@ -5961,7 +6195,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <v>1</v>
       </c>
@@ -6044,7 +6278,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
         <v>1</v>
       </c>
@@ -6127,7 +6361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
         <v>1</v>
       </c>
@@ -6210,7 +6444,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
         <v>2</v>
       </c>
@@ -6293,7 +6527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <v>2</v>
       </c>
@@ -6376,7 +6610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <v>2</v>
       </c>
@@ -6459,7 +6693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
         <v>2</v>
       </c>
@@ -6542,7 +6776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <v>2</v>
       </c>
@@ -6625,7 +6859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
         <v>2</v>
       </c>
@@ -6708,7 +6942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
         <v>2</v>
       </c>
@@ -6791,7 +7025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
         <v>2</v>
       </c>
@@ -6874,7 +7108,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" s="14">
         <v>3</v>
       </c>
@@ -6957,7 +7191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" s="14">
         <v>3</v>
       </c>
@@ -7040,7 +7274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" s="14">
         <v>3</v>
       </c>
@@ -7123,7 +7357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" s="14">
         <v>3</v>
       </c>
@@ -7206,7 +7440,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" s="14">
         <v>3</v>
       </c>
@@ -7289,7 +7523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" s="14">
         <v>3</v>
       </c>
@@ -7372,7 +7606,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" s="14">
         <v>3</v>
       </c>
@@ -7455,7 +7689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" s="14">
         <v>3</v>
       </c>
@@ -7538,7 +7772,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" s="14">
         <v>3</v>
       </c>
@@ -7621,7 +7855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" s="14">
         <v>3</v>
       </c>
@@ -7704,7 +7938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" s="14">
         <v>3</v>
       </c>
@@ -7787,7 +8021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" s="14">
         <v>3</v>
       </c>
@@ -7870,7 +8104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" s="14">
         <v>3</v>
       </c>
@@ -7953,7 +8187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" s="14">
         <v>3</v>
       </c>
@@ -8036,7 +8270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" s="14">
         <v>3</v>
       </c>
@@ -8119,7 +8353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45" s="14">
         <v>3</v>
       </c>
@@ -8202,7 +8436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46" s="14">
         <v>4</v>
       </c>
@@ -8285,7 +8519,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47" s="14">
         <v>4</v>
       </c>
@@ -8368,7 +8602,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" s="14">
         <v>4</v>
       </c>
@@ -8451,7 +8685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49" s="14">
         <v>4</v>
       </c>
@@ -8534,7 +8768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50" s="14">
         <v>4</v>
       </c>
@@ -8617,7 +8851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51" s="14">
         <v>4</v>
       </c>
@@ -8700,7 +8934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52" s="14">
         <v>4</v>
       </c>
@@ -8783,7 +9017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53" s="14">
         <v>4</v>
       </c>
@@ -8866,7 +9100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54" s="14">
         <v>4</v>
       </c>
@@ -8949,7 +9183,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55" s="14">
         <v>4</v>
       </c>
@@ -9032,7 +9266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A56" s="14">
         <v>4</v>
       </c>
@@ -9115,7 +9349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A57" s="14">
         <v>4</v>
       </c>
@@ -9198,7 +9432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A58" s="14">
         <v>4</v>
       </c>
@@ -9281,7 +9515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A59" s="14">
         <v>4</v>
       </c>
@@ -9364,7 +9598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A60" s="14">
         <v>4</v>
       </c>
@@ -9447,7 +9681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A61" s="14">
         <v>4</v>
       </c>
@@ -9530,7 +9764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A62" s="14">
         <v>5</v>
       </c>
@@ -9613,7 +9847,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A63" s="14">
         <v>5</v>
       </c>
@@ -9696,7 +9930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A64" s="14">
         <v>5</v>
       </c>
@@ -9779,7 +10013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A65" s="14">
         <v>5</v>
       </c>
@@ -9862,7 +10096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A66" s="14">
         <v>5</v>
       </c>
@@ -9945,7 +10179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A67" s="14">
         <v>5</v>
       </c>
@@ -10028,7 +10262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A68" s="14">
         <v>5</v>
       </c>
@@ -10111,7 +10345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A69" s="14">
         <v>5</v>
       </c>
@@ -10194,7 +10428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A70" s="14">
         <v>5</v>
       </c>
@@ -10277,7 +10511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A71" s="14">
         <v>5</v>
       </c>
@@ -10360,7 +10594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A72" s="14">
         <v>5</v>
       </c>
@@ -10443,7 +10677,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A73" s="14">
         <v>5</v>
       </c>
@@ -10526,7 +10760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A74" s="14">
         <v>5</v>
       </c>
@@ -10609,7 +10843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A75" s="14">
         <v>5</v>
       </c>
@@ -10692,7 +10926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A76" s="14">
         <v>6</v>
       </c>
@@ -10775,7 +11009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A77" s="14">
         <v>6</v>
       </c>
@@ -10858,7 +11092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A78" s="14">
         <v>6</v>
       </c>
@@ -10941,7 +11175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A79" s="14">
         <v>6</v>
       </c>
@@ -11024,7 +11258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A80" s="14">
         <v>6</v>
       </c>
@@ -11107,7 +11341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A81" s="14">
         <v>6</v>
       </c>
@@ -11190,7 +11424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A82" s="14">
         <v>6</v>
       </c>
@@ -11273,7 +11507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A83" s="14">
         <v>6</v>
       </c>
@@ -11356,7 +11590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A84" s="14">
         <v>6</v>
       </c>
@@ -11439,7 +11673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A85" s="14">
         <v>6</v>
       </c>
@@ -11522,7 +11756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A86" s="14">
         <v>6</v>
       </c>
@@ -11605,7 +11839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A87" s="14">
         <v>6</v>
       </c>
@@ -11688,7 +11922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A88" s="14">
         <v>6</v>
       </c>
@@ -11771,7 +12005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A89" s="14">
         <v>6</v>
       </c>
@@ -11854,7 +12088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A90" s="14">
         <v>7</v>
       </c>
@@ -11937,7 +12171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A91" s="14">
         <v>7</v>
       </c>
@@ -12020,7 +12254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A92" s="14">
         <v>7</v>
       </c>
@@ -12103,7 +12337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A93" s="14">
         <v>7</v>
       </c>
@@ -12186,7 +12420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A94" s="14">
         <v>7</v>
       </c>
@@ -12269,7 +12503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A95" s="14">
         <v>7</v>
       </c>
@@ -12352,7 +12586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A96" s="14">
         <v>7</v>
       </c>
@@ -12435,7 +12669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A97" s="14">
         <v>7</v>
       </c>
@@ -12518,7 +12752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A98" s="14">
         <v>7</v>
       </c>
@@ -12601,7 +12835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A99" s="14">
         <v>7</v>
       </c>
@@ -12684,7 +12918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A100" s="14">
         <v>7</v>
       </c>
@@ -12767,7 +13001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A101" s="14">
         <v>7</v>
       </c>
@@ -12850,7 +13084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A102" s="14">
         <v>7</v>
       </c>
@@ -12933,7 +13167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A103" s="14">
         <v>7</v>
       </c>
@@ -13016,7 +13250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A104" s="14">
         <v>7</v>
       </c>
@@ -13099,7 +13333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A105" s="14">
         <v>7</v>
       </c>
@@ -13182,7 +13416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A106" s="14">
         <v>7</v>
       </c>
@@ -13265,7 +13499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A107" s="14">
         <v>7</v>
       </c>
@@ -13348,7 +13582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A108" s="14">
         <v>7</v>
       </c>
@@ -13431,7 +13665,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A109" s="14">
         <v>8</v>
       </c>
@@ -13514,7 +13748,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A110" s="14">
         <v>8</v>
       </c>
@@ -13597,7 +13831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A111" s="14">
         <v>8</v>
       </c>
@@ -13680,7 +13914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A112" s="14">
         <v>8</v>
       </c>
@@ -13763,7 +13997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A113" s="14">
         <v>8</v>
       </c>
@@ -13846,7 +14080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A114" s="14">
         <v>8</v>
       </c>
@@ -13929,7 +14163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A115" s="14">
         <v>8</v>
       </c>
@@ -14012,7 +14246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A116" s="14">
         <v>8</v>
       </c>
@@ -14095,7 +14329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A117" s="14">
         <v>9</v>
       </c>
@@ -14178,7 +14412,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A118" s="14">
         <v>9</v>
       </c>
@@ -14261,7 +14495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A119" s="14">
         <v>9</v>
       </c>
@@ -14344,7 +14578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A120" s="14">
         <v>9</v>
       </c>
@@ -14427,7 +14661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A121" s="14">
         <v>9</v>
       </c>
@@ -14510,7 +14744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A122" s="14">
         <v>9</v>
       </c>
@@ -14593,7 +14827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A123" s="14">
         <v>9</v>
       </c>
@@ -14676,7 +14910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A124" s="14">
         <v>9</v>
       </c>
@@ -14759,7 +14993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A125" s="14">
         <v>9</v>
       </c>
@@ -14842,7 +15076,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A126" s="14">
         <v>9</v>
       </c>
@@ -14925,7 +15159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A127" s="14">
         <v>9</v>
       </c>
@@ -15008,7 +15242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A128" s="14">
         <v>9</v>
       </c>
@@ -15091,7 +15325,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A129" s="14">
         <v>9</v>
       </c>
@@ -15174,7 +15408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A130" s="14">
         <v>9</v>
       </c>
@@ -15257,7 +15491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A131" s="14">
         <v>9</v>
       </c>
@@ -15340,7 +15574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A132" s="14">
         <v>9</v>
       </c>
@@ -15423,7 +15657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A133" s="14">
         <v>9</v>
       </c>
@@ -15506,7 +15740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A134" s="14">
         <v>9</v>
       </c>
@@ -15589,7 +15823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A135" s="14">
         <v>9</v>
       </c>
@@ -15672,7 +15906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A136" s="14">
         <v>9</v>
       </c>
@@ -15755,7 +15989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A137" s="14">
         <v>9</v>
       </c>
@@ -15838,7 +16072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A138" s="14">
         <v>9</v>
       </c>
@@ -15921,7 +16155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A139" s="14">
         <v>9</v>
       </c>
@@ -16004,7 +16238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A140" s="14">
         <v>9</v>
       </c>
@@ -16087,7 +16321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A141" s="14">
         <v>10</v>
       </c>
@@ -16170,7 +16404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A142" s="14">
         <v>10</v>
       </c>
@@ -16253,7 +16487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A143" s="14">
         <v>10</v>
       </c>
@@ -16336,7 +16570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A144" s="14">
         <v>10</v>
       </c>
@@ -16419,7 +16653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A145" s="14">
         <v>10</v>
       </c>
@@ -16502,7 +16736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A146" s="14">
         <v>10</v>
       </c>
@@ -16585,7 +16819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A147" s="14">
         <v>10</v>
       </c>
@@ -16668,7 +16902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A148" s="14">
         <v>10</v>
       </c>
@@ -16751,7 +16985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A149" s="14">
         <v>10</v>
       </c>
@@ -16834,7 +17068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A150" s="14">
         <v>10</v>
       </c>
@@ -16917,7 +17151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A151" s="14">
         <v>10</v>
       </c>
@@ -17000,7 +17234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A152" s="14">
         <v>10</v>
       </c>
@@ -17083,7 +17317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A153" s="14">
         <v>10</v>
       </c>
@@ -17166,7 +17400,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A154" s="14">
         <v>10</v>
       </c>
@@ -17249,7 +17483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A155" s="14">
         <v>10</v>
       </c>
@@ -17332,7 +17566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A156" s="14">
         <v>10</v>
       </c>
@@ -17415,7 +17649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A157" s="14">
         <v>10</v>
       </c>
@@ -17498,7 +17732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A158" s="14">
         <v>10</v>
       </c>
@@ -17581,7 +17815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A159" s="14">
         <v>10</v>
       </c>
@@ -17664,7 +17898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A160" s="14">
         <v>10</v>
       </c>
@@ -17747,7 +17981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A161" s="14">
         <v>10</v>
       </c>
@@ -17830,7 +18064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A162" s="14">
         <v>11</v>
       </c>
@@ -17913,7 +18147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A163" s="14">
         <v>11</v>
       </c>
@@ -17996,7 +18230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A164" s="14">
         <v>11</v>
       </c>
@@ -18079,7 +18313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A165" s="14">
         <v>11</v>
       </c>
@@ -18162,7 +18396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A166" s="14">
         <v>11</v>
       </c>
@@ -18245,7 +18479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A167" s="14">
         <v>11</v>
       </c>
@@ -18328,7 +18562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A168" s="14">
         <v>11</v>
       </c>
@@ -18411,7 +18645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A169" s="14">
         <v>11</v>
       </c>
@@ -18494,7 +18728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A170" s="14">
         <v>11</v>
       </c>
@@ -18577,7 +18811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A171" s="14">
         <v>12</v>
       </c>
@@ -18660,7 +18894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A172" s="14">
         <v>12</v>
       </c>
@@ -18743,7 +18977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A173" s="14">
         <v>12</v>
       </c>
@@ -18826,7 +19060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A174" s="14">
         <v>12</v>
       </c>
@@ -18909,7 +19143,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="175" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A175" s="14">
         <v>12</v>
       </c>
@@ -18992,7 +19226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A176" s="14">
         <v>12</v>
       </c>
@@ -19075,7 +19309,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A177" s="14">
         <v>12</v>
       </c>
@@ -19158,7 +19392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A178" s="14">
         <v>12</v>
       </c>
@@ -19241,7 +19475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A179" s="14">
         <v>12</v>
       </c>
@@ -19324,7 +19558,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="180" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A180" s="14">
         <v>12</v>
       </c>
@@ -19407,7 +19641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A181" s="14">
         <v>12</v>
       </c>
@@ -19490,7 +19724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A182" s="14">
         <v>12</v>
       </c>
@@ -19573,7 +19807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A183" s="14">
         <v>12</v>
       </c>
@@ -19656,7 +19890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A184" s="14">
         <v>12</v>
       </c>
@@ -19739,7 +19973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A185" s="14">
         <v>12</v>
       </c>
@@ -19822,7 +20056,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="186" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A186" s="14">
         <v>12</v>
       </c>
@@ -19905,7 +20139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A187" s="14">
         <v>12</v>
       </c>
@@ -19988,7 +20222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A188" s="14">
         <v>12</v>
       </c>
@@ -20071,7 +20305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A189" s="14">
         <v>12</v>
       </c>
@@ -20154,7 +20388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A190" s="14">
         <v>12</v>
       </c>
@@ -20237,7 +20471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A191" s="14">
         <v>12</v>
       </c>
@@ -20320,7 +20554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A192" s="14">
         <v>12</v>
       </c>
@@ -20403,7 +20637,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="193" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A193" s="14">
         <v>12</v>
       </c>
@@ -20486,7 +20720,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="194" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A194" s="14">
         <v>12</v>
       </c>
@@ -20569,7 +20803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A195" s="14">
         <v>12</v>
       </c>
@@ -20652,7 +20886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A196" s="14">
         <v>12</v>
       </c>
@@ -20735,7 +20969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A197" s="14">
         <v>12</v>
       </c>
@@ -20818,7 +21052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A198" s="14">
         <v>12</v>
       </c>
@@ -20901,7 +21135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A199" s="14">
         <v>12</v>
       </c>
@@ -20984,7 +21218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A200" s="14">
         <v>12</v>
       </c>
@@ -21067,7 +21301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A201" s="14">
         <v>13</v>
       </c>
@@ -21150,7 +21384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A202" s="14">
         <v>13</v>
       </c>
@@ -21233,7 +21467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A203" s="14">
         <v>13</v>
       </c>
@@ -21316,7 +21550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A204" s="14">
         <v>13</v>
       </c>
@@ -21399,7 +21633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="205" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A205" s="14">
         <v>13</v>
       </c>
@@ -21482,7 +21716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A206" s="14">
         <v>13</v>
       </c>
@@ -21565,7 +21799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="207" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A207" s="14">
         <v>13</v>
       </c>
@@ -21648,7 +21882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A208" s="14">
         <v>13</v>
       </c>
@@ -21731,7 +21965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A209" s="14">
         <v>13</v>
       </c>
@@ -21814,7 +22048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A210" s="14">
         <v>13</v>
       </c>
@@ -21897,7 +22131,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="211" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A211" s="14">
         <v>13</v>
       </c>
@@ -21980,7 +22214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A212" s="14">
         <v>13</v>
       </c>
@@ -22063,7 +22297,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="213" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A213" s="14">
         <v>13</v>
       </c>
@@ -22146,7 +22380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A214" s="14">
         <v>13</v>
       </c>
@@ -22229,7 +22463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A215" s="14">
         <v>13</v>
       </c>
@@ -22312,7 +22546,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="216" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A216" s="14">
         <v>13</v>
       </c>
@@ -22395,7 +22629,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="217" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A217" s="14">
         <v>13</v>
       </c>
@@ -22478,7 +22712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A218" s="14">
         <v>13</v>
       </c>
@@ -22561,7 +22795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A219" s="14">
         <v>13</v>
       </c>
@@ -22644,7 +22878,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="220" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A220" s="14">
         <v>13</v>
       </c>
@@ -22727,7 +22961,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A221" s="14">
         <v>13</v>
       </c>
@@ -22810,7 +23044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A222" s="14">
         <v>13</v>
       </c>
@@ -22893,7 +23127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A223" s="14">
         <v>13</v>
       </c>
@@ -22976,7 +23210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A224" s="14">
         <v>13</v>
       </c>
@@ -23059,7 +23293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A225" s="14">
         <v>13</v>
       </c>
@@ -23142,7 +23376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A226" s="14">
         <v>13</v>
       </c>
@@ -23225,7 +23459,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="227" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A227" s="14">
         <v>13</v>
       </c>
@@ -23308,7 +23542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A228" s="14">
         <v>13</v>
       </c>
@@ -23391,7 +23625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A229" s="14">
         <v>13</v>
       </c>
@@ -23474,7 +23708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A230" s="14">
         <v>13</v>
       </c>
@@ -23557,7 +23791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A231" s="14">
         <v>13</v>
       </c>
@@ -23640,7 +23874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A232" s="14">
         <v>13</v>
       </c>
@@ -23723,7 +23957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A233" s="14">
         <v>13</v>
       </c>
@@ -23806,7 +24040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A234" s="14">
         <v>14</v>
       </c>
@@ -23889,7 +24123,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="235" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A235" s="14">
         <v>14</v>
       </c>
@@ -23972,7 +24206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A236" s="14">
         <v>14</v>
       </c>
@@ -24055,7 +24289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A237" s="14">
         <v>14</v>
       </c>
@@ -24138,7 +24372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A238" s="14">
         <v>14</v>
       </c>
@@ -24221,7 +24455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A239" s="14">
         <v>14</v>
       </c>
@@ -24304,7 +24538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A240" s="14">
         <v>14</v>
       </c>
@@ -24387,7 +24621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A241" s="14">
         <v>14</v>
       </c>
@@ -24470,7 +24704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A242" s="14">
         <v>14</v>
       </c>
@@ -24553,7 +24787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A243" s="14">
         <v>14</v>
       </c>
@@ -24636,7 +24870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A244" s="14">
         <v>14</v>
       </c>
@@ -24719,7 +24953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A245" s="14">
         <v>14</v>
       </c>
@@ -24802,7 +25036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="246" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A246" s="14">
         <v>14</v>
       </c>
@@ -24885,7 +25119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A247" s="14">
         <v>14</v>
       </c>
@@ -24968,7 +25202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A248" s="14">
         <v>14</v>
       </c>
@@ -25051,7 +25285,7 @@
         <v>3536</v>
       </c>
     </row>
-    <row r="249" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A249" s="14">
         <v>14</v>
       </c>
@@ -25134,7 +25368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="250" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A250" s="14">
         <v>14</v>
       </c>
@@ -25217,7 +25451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A251" s="14">
         <v>14</v>
       </c>
@@ -25300,7 +25534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A252" s="14">
         <v>14</v>
       </c>
@@ -25383,7 +25617,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="253" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A253" s="14">
         <v>14</v>
       </c>
@@ -25466,7 +25700,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="254" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A254" s="14">
         <v>14</v>
       </c>
@@ -25549,7 +25783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A255" s="14">
         <v>15</v>
       </c>
@@ -25632,7 +25866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A256" s="14">
         <v>15</v>
       </c>
@@ -25715,7 +25949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A257" s="14">
         <v>15</v>
       </c>
@@ -25798,7 +26032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A258" s="14">
         <v>15</v>
       </c>
@@ -25881,7 +26115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A259" s="14">
         <v>15</v>
       </c>
@@ -25964,7 +26198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A260" s="14">
         <v>15</v>
       </c>
@@ -26047,7 +26281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A261" s="14">
         <v>15</v>
       </c>
@@ -26130,7 +26364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A262" s="14">
         <v>15</v>
       </c>
@@ -26213,7 +26447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A263" s="14">
         <v>16</v>
       </c>
@@ -26296,7 +26530,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="264" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A264" s="14">
         <v>16</v>
       </c>
@@ -26379,7 +26613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A265" s="14">
         <v>16</v>
       </c>
@@ -26462,7 +26696,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="266" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A266" s="14">
         <v>16</v>
       </c>
@@ -26545,7 +26779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A267" s="14">
         <v>16</v>
       </c>
@@ -26628,7 +26862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A268" s="14">
         <v>16</v>
       </c>
@@ -26711,7 +26945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A269" s="14">
         <v>16</v>
       </c>
@@ -26794,7 +27028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A270" s="14">
         <v>16</v>
       </c>
@@ -26877,7 +27111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A271" s="14">
         <v>16</v>
       </c>
@@ -26960,7 +27194,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="272" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A272" s="14">
         <v>16</v>
       </c>
@@ -27043,7 +27277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A273" s="14">
         <v>16</v>
       </c>
@@ -27126,7 +27360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A274" s="14">
         <v>16</v>
       </c>
@@ -27209,7 +27443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A275" s="14">
         <v>16</v>
       </c>
@@ -27292,7 +27526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A276" s="14">
         <v>16</v>
       </c>
@@ -27375,7 +27609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A277" s="14">
         <v>16</v>
       </c>
@@ -27458,7 +27692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A278" s="14">
         <v>16</v>
       </c>
@@ -27541,7 +27775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A279" s="14">
         <v>16</v>
       </c>
@@ -27624,7 +27858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A280" s="14">
         <v>17</v>
       </c>
@@ -27707,7 +27941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A281" s="14">
         <v>17</v>
       </c>
@@ -27790,7 +28024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A282" s="14">
         <v>17</v>
       </c>
@@ -27873,7 +28107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A283" s="14">
         <v>17</v>
       </c>
@@ -27956,7 +28190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A284" s="14">
         <v>17</v>
       </c>
@@ -28039,7 +28273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A285" s="14">
         <v>17</v>
       </c>
@@ -28122,7 +28356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A286" s="14">
         <v>17</v>
       </c>
@@ -28205,7 +28439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A287" s="14">
         <v>17</v>
       </c>
@@ -28288,7 +28522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A288" s="14">
         <v>17</v>
       </c>
@@ -28371,7 +28605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A289" s="14">
         <v>17</v>
       </c>
@@ -28454,7 +28688,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="290" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A290" s="14">
         <v>17</v>
       </c>
@@ -28537,7 +28771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A291" s="14">
         <v>17</v>
       </c>
@@ -28620,7 +28854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A292" s="14">
         <v>17</v>
       </c>
@@ -28703,7 +28937,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="293" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A293" s="14">
         <v>17</v>
       </c>
@@ -28786,7 +29020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A294" s="14">
         <v>18</v>
       </c>
@@ -28869,7 +29103,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="295" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A295" s="14">
         <v>18</v>
       </c>
@@ -28952,7 +29186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A296" s="14">
         <v>18</v>
       </c>
@@ -29035,7 +29269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A297" s="14">
         <v>18</v>
       </c>
@@ -29118,7 +29352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A298" s="14">
         <v>18</v>
       </c>
@@ -29201,7 +29435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A299" s="14">
         <v>19</v>
       </c>
@@ -29284,7 +29518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A300" s="14">
         <v>19</v>
       </c>
@@ -29367,7 +29601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A301" s="14">
         <v>19</v>
       </c>
@@ -29450,7 +29684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A302" s="14">
         <v>19</v>
       </c>
@@ -29533,7 +29767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A303" s="14">
         <v>19</v>
       </c>
@@ -29616,7 +29850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A304" s="14">
         <v>19</v>
       </c>
@@ -29699,7 +29933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A305" s="14">
         <v>19</v>
       </c>
@@ -29782,7 +30016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A306" s="14">
         <v>19</v>
       </c>
@@ -29865,7 +30099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A307" s="14">
         <v>19</v>
       </c>
@@ -29948,7 +30182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A308" s="14">
         <v>19</v>
       </c>
@@ -30031,7 +30265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A309" s="14">
         <v>19</v>
       </c>
@@ -30114,7 +30348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A310" s="14">
         <v>20</v>
       </c>
@@ -30197,7 +30431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A311" s="14">
         <v>20</v>
       </c>
@@ -30280,7 +30514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A312" s="14">
         <v>20</v>
       </c>
@@ -30363,7 +30597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A313" s="14">
         <v>20</v>
       </c>
@@ -30446,7 +30680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A314" s="14">
         <v>20</v>
       </c>
@@ -30529,7 +30763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A315" s="14">
         <v>20</v>
       </c>
@@ -30612,7 +30846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A316" s="14">
         <v>20</v>
       </c>
@@ -30695,7 +30929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A317" s="14">
         <v>20</v>
       </c>
@@ -30778,7 +31012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A318" s="14">
         <v>20</v>
       </c>
@@ -30861,7 +31095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A319" s="14">
         <v>20</v>
       </c>
@@ -30944,7 +31178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A320" s="14">
         <v>20</v>
       </c>
@@ -31027,7 +31261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A321" s="14">
         <v>21</v>
       </c>
@@ -31110,7 +31344,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="322" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A322" s="14">
         <v>21</v>
       </c>
@@ -31193,7 +31427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A323" s="14">
         <v>21</v>
       </c>
@@ -31276,7 +31510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A324" s="14">
         <v>21</v>
       </c>
@@ -31359,7 +31593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A325" s="14">
         <v>21</v>
       </c>
@@ -31442,7 +31676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A326" s="14">
         <v>21</v>
       </c>
@@ -31525,7 +31759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A327" s="14">
         <v>21</v>
       </c>
@@ -31608,7 +31842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A328" s="14">
         <v>22</v>
       </c>
@@ -31691,7 +31925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A329" s="14">
         <v>22</v>
       </c>
@@ -31774,7 +32008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A330" s="14">
         <v>22</v>
       </c>
@@ -31857,7 +32091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A331" s="14">
         <v>22</v>
       </c>
@@ -31940,7 +32174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A332" s="14">
         <v>22</v>
       </c>
@@ -32023,7 +32257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A333" s="14">
         <v>22</v>
       </c>
@@ -32106,7 +32340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A334" s="14">
         <v>22</v>
       </c>
@@ -32189,7 +32423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A335" s="14">
         <v>22</v>
       </c>
@@ -32272,7 +32506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A336" s="14">
         <v>22</v>
       </c>
@@ -32355,7 +32589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A337" s="14">
         <v>22</v>
       </c>
@@ -32438,7 +32672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A338" s="14">
         <v>22</v>
       </c>
@@ -32521,7 +32755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A339" s="14">
         <v>22</v>
       </c>
@@ -32604,7 +32838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A340" s="14">
         <v>22</v>
       </c>
@@ -32687,7 +32921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A341" s="14">
         <v>22</v>
       </c>
@@ -32770,7 +33004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A342" s="14">
         <v>22</v>
       </c>
@@ -32853,7 +33087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A343" s="14">
         <v>22</v>
       </c>
@@ -32936,7 +33170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A344" s="11">
         <v>22</v>
       </c>
@@ -33019,7 +33253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A345" s="5" t="s">
         <v>0</v>
       </c>
